--- a/test/output/data_schema_properties_2016_mdf.xlsx
+++ b/test/output/data_schema_properties_2016_mdf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="7080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
   <si>
     <t>column</t>
   </si>
@@ -27,6 +27,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>include</t>
+  </si>
+  <si>
     <t>sample_value</t>
   </si>
   <si>
@@ -51,55 +54,55 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[11576840, 14178655, 13095053, 17261726, 14690683]</t>
+    <t>[11664234, 14354535, 12037464, 12251695, 14680323]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 13.0, 1.0, 1.0]</t>
+    <t>[1.0, 1.0, 1.0, 13.0, 1.0]</t>
   </si>
   <si>
     <t>architecturalstyletypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 7.0, 7.0, 8.0]</t>
+    <t>[7.0, 2.0, 8.0, 7.0, 7.0]</t>
   </si>
   <si>
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[805.0, 375.0, 1309.0, 485.0, 24.0]</t>
+    <t>[271.0, 203.0, 1056.0, 392.0, 260.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[2.0, 3.5, 1.5, 2.0, 2.0]</t>
+    <t>[2.0, 3.0, 1.0, 1.5, 1.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[4.0, 2.0, 3.0, 1.0, 3.0]</t>
+    <t>[3.0, 2.0, 0.0, 3.0, 0.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[4.0, 4.0, 4.0, 4.0, 4.0]</t>
+    <t>[4.0, 3.0, 3.0, 4.0, 4.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 4.0, 7.0, 7.0]</t>
+    <t>[7.0, 4.0, 7.0, 4.0, 7.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[5.0, 1.0, 2.0, 2.0, 4.0]</t>
+    <t>[5.0, 2.0, 2.5, 2.0, 2.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -111,235 +114,238 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1052.0, 1151.0, 938.0, 1362.0, 574.0]</t>
+    <t>[1268.0, 1526.0, 975.0, 952.0, 1768.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1230.0, 1428.0, 1122.0, 2049.0, 2351.0]</t>
+    <t>[1288.0, 593.0, 1438.0, 2030.0, 1385.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[2012.0, 2490.0, 1158.0, 1088.0, 2511.0]</t>
+    <t>[1473.0, 1612.0, 1782.0, 919.0, 1382.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[660.0, 1488.0, 1344.0, 1440.0, 880.0]</t>
+    <t>[720.0, 1344.0, 1440.0, 1440.0, 768.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[3693.0, 1980.0, 2378.0, 5526.0, 1731.0]</t>
+    <t>[1828.0, 2434.0, 1773.0, 4030.0, 1458.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[1002.0, 1051.0, 1200.0, 1454.0, 1491.0]</t>
+    <t>[817.0, 1153.0, 1424.0, 1208.0, 1674.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[2316.0, 2625.0, 816.0, 1980.0, 4042.0]</t>
+    <t>[925.0, 4968.0, 485.0, 1933.0, 3584.0]</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>[6037.0, 6059.0, 6037.0, 6111.0, 6037.0]</t>
+    <t>[6037.0, 6037.0, 6037.0, 6059.0, 6037.0]</t>
   </si>
   <si>
     <t>fireplacecnt</t>
   </si>
   <si>
+    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>fullbathcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 2.0, 2.0, 1.0, 2.0]</t>
+  </si>
+  <si>
+    <t>garagecarcnt</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0, 2.0, 3.0, 2.0]</t>
+  </si>
+  <si>
+    <t>garagetotalsqft</t>
+  </si>
+  <si>
+    <t>[0.0, 419.0, 0.0, 559.0, 575.0]</t>
+  </si>
+  <si>
+    <t>hashottuborspa</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>[True, True, True, True, True]</t>
+  </si>
+  <si>
+    <t>heatingorsystemtypeid</t>
+  </si>
+  <si>
+    <t>[2.0, 2.0, 2.0, 7.0, 6.0]</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>[33812138.0, 34449431.0, 33699880.0, 33950100.0, 34199527.0]</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>[-118016862.0, -117702545.0, -118169645.0, -118162000.0, -118159881.0]</t>
+  </si>
+  <si>
+    <t>lotsizesquarefeet</t>
+  </si>
+  <si>
+    <t>[6500.0, 61032.0, 5692.0, 2360.0, 3324.0]</t>
+  </si>
+  <si>
+    <t>poolcnt</t>
+  </si>
+  <si>
+    <t>poolsizesum</t>
+  </si>
+  <si>
+    <t>[405.0, 550.0, 577.0, 390.0, 400.0]</t>
+  </si>
+  <si>
+    <t>pooltypeid10</t>
+  </si>
+  <si>
+    <t>pooltypeid2</t>
+  </si>
+  <si>
+    <t>pooltypeid7</t>
+  </si>
+  <si>
+    <t>propertycountylandusecode</t>
+  </si>
+  <si>
+    <t>['0101', '122', '0100', '0100', '0101']</t>
+  </si>
+  <si>
+    <t>propertylandusetypeid</t>
+  </si>
+  <si>
+    <t>[263.0, 261.0, 246.0, 261.0, 266.0]</t>
+  </si>
+  <si>
+    <t>propertyzoningdesc</t>
+  </si>
+  <si>
+    <t>['MPR1YY', 'LARS', 'LARD2', 'LCR16000*', 'LCR105']</t>
+  </si>
+  <si>
+    <t>rawcensustractandblock</t>
+  </si>
+  <si>
+    <t>[60375545.131009, 60371852.042001, 60590998.033009, 60372169.00100601, 60590524.252]</t>
+  </si>
+  <si>
+    <t>regionidcity</t>
+  </si>
+  <si>
+    <t>[16764.0, 47762.0, 30399.0, 13693.0, 12447.0]</t>
+  </si>
+  <si>
+    <t>regionidcounty</t>
+  </si>
+  <si>
+    <t>[1286.0, 2061.0, 3101.0, 3101.0, 3101.0]</t>
+  </si>
+  <si>
+    <t>regionidneighborhood</t>
+  </si>
+  <si>
+    <t>[268496.0, 7877.0, 275795.0, 416337.0, 116206.0]</t>
+  </si>
+  <si>
+    <t>regionidzip</t>
+  </si>
+  <si>
+    <t>[96368.0, 96015.0, 96506.0, 97065.0, 97065.0]</t>
+  </si>
+  <si>
+    <t>roomcnt</t>
+  </si>
+  <si>
+    <t>[0.0, 8.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>storytypeid</t>
+  </si>
+  <si>
+    <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
+  </si>
+  <si>
+    <t>threequarterbathnbr</t>
+  </si>
+  <si>
+    <t>typeconstructiontypeid</t>
+  </si>
+  <si>
+    <t>[6.0, 6.0, 6.0, 6.0, 6.0]</t>
+  </si>
+  <si>
+    <t>unitcnt</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0, 2.0, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>yardbuildingsqft17</t>
+  </si>
+  <si>
+    <t>[350.0, 650.0, 240.0, 302.0, 328.0]</t>
+  </si>
+  <si>
+    <t>yardbuildingsqft26</t>
+  </si>
+  <si>
+    <t>[170.0, 120.0, 204.0, 49.0, 88.0]</t>
+  </si>
+  <si>
+    <t>yearbuilt</t>
+  </si>
+  <si>
+    <t>[1951.0, 1989.0, 2014.0, 2001.0, 1989.0]</t>
+  </si>
+  <si>
+    <t>numberofstories</t>
+  </si>
+  <si>
     <t>[1.0, 1.0, 1.0, 1.0, 2.0]</t>
   </si>
   <si>
-    <t>fullbathcnt</t>
-  </si>
-  <si>
-    <t>[2.0, 2.0, 3.0, 1.0, 6.0]</t>
-  </si>
-  <si>
-    <t>garagecarcnt</t>
-  </si>
-  <si>
-    <t>[2.0, 2.0, 2.0, 2.0, 2.0]</t>
-  </si>
-  <si>
-    <t>garagetotalsqft</t>
-  </si>
-  <si>
-    <t>[500.0, 439.0, 0.0, 517.0, 792.0]</t>
-  </si>
-  <si>
-    <t>hashottuborspa</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>[True, True, True, True, True]</t>
-  </si>
-  <si>
-    <t>heatingorsystemtypeid</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>[33857325.0, 33662395.0, 33622495.0, 33679200.0, 34044547.0]</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>[-117872270.0, -118302033.0, -117610894.0, -117856419.0, -117779089.0]</t>
-  </si>
-  <si>
-    <t>lotsizesquarefeet</t>
-  </si>
-  <si>
-    <t>[108116.0, 34768.0, 7115.0, 5400.0, 6954.0]</t>
-  </si>
-  <si>
-    <t>poolcnt</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>poolsizesum</t>
-  </si>
-  <si>
-    <t>[480.0, 450.0, 476.0, 1368.0, 512.0]</t>
-  </si>
-  <si>
-    <t>pooltypeid10</t>
-  </si>
-  <si>
-    <t>pooltypeid2</t>
-  </si>
-  <si>
-    <t>pooltypeid7</t>
-  </si>
-  <si>
-    <t>propertycountylandusecode</t>
-  </si>
-  <si>
-    <t>['0100', '010C', '0100', '0101', '070P']</t>
-  </si>
-  <si>
-    <t>propertylandusetypeid</t>
-  </si>
-  <si>
-    <t>[261.0, 261.0, 267.0, 261.0, 266.0]</t>
-  </si>
-  <si>
-    <t>propertyzoningdesc</t>
-  </si>
-  <si>
-    <t>['LAR1', 'LARD3', 'LAR2', 'PSR4', 'PSR6']</t>
-  </si>
-  <si>
-    <t>rawcensustractandblock</t>
-  </si>
-  <si>
-    <t>[61110077.001059994, 60371255.011007994, 60377013.043012999, 60376506.032005005, 60376703.283024997]</t>
-  </si>
-  <si>
-    <t>regionidcity</t>
-  </si>
-  <si>
-    <t>[14634.0, 27110.0, 50677.0, 32380.0, 52650.0]</t>
-  </si>
-  <si>
-    <t>regionidcounty</t>
-  </si>
-  <si>
-    <t>[3101.0, 1286.0, 2061.0, 1286.0, 3101.0]</t>
-  </si>
-  <si>
-    <t>regionidneighborhood</t>
-  </si>
-  <si>
-    <t>[6952.0, 275078.0, 268392.0, 118208.0, 21056.0]</t>
-  </si>
-  <si>
-    <t>regionidzip</t>
-  </si>
-  <si>
-    <t>[97089.0, 96369.0, 96373.0, 96954.0, 96465.0]</t>
-  </si>
-  <si>
-    <t>roomcnt</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 8.0]</t>
-  </si>
-  <si>
-    <t>storytypeid</t>
-  </si>
-  <si>
-    <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
-  </si>
-  <si>
-    <t>threequarterbathnbr</t>
-  </si>
-  <si>
-    <t>typeconstructiontypeid</t>
-  </si>
-  <si>
-    <t>[6.0, 6.0, 6.0, 6.0, 6.0]</t>
-  </si>
-  <si>
-    <t>unitcnt</t>
-  </si>
-  <si>
-    <t>yardbuildingsqft17</t>
-  </si>
-  <si>
-    <t>[396.0, 384.0, 458.0, 200.0, 225.0]</t>
-  </si>
-  <si>
-    <t>yardbuildingsqft26</t>
-  </si>
-  <si>
-    <t>[68.0, 108.0, 48.0, 390.0, 386.0]</t>
-  </si>
-  <si>
-    <t>yearbuilt</t>
-  </si>
-  <si>
-    <t>[1944.0, 1965.0, 1973.0, 1994.0, 1937.0]</t>
-  </si>
-  <si>
-    <t>numberofstories</t>
-  </si>
-  <si>
-    <t>[1.0, 2.0, 1.0, 1.0, 2.0]</t>
-  </si>
-  <si>
     <t>fireplaceflag</t>
   </si>
   <si>
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[132280.0, 137684.0, 204778.0, 93226.0, 260709.0]</t>
+    <t>[641506.0, 71429.0, 47251.0, 93453.0, 35486.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[208693.0, 319648.0, 261274.0, 166000.0, 332996.0]</t>
+    <t>[416000.0, 217991.0, 211053.0, 188664.0, 753558.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -351,13 +357,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[453891.0, 328000.0, 158465.0, 37427.0, 408222.0]</t>
+    <t>[40676.0, 70427.0, 126967.0, 76461.0, 168765.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[4611.4200000000001, 2305.0999999999999, 3698.7399999999998, 1167.99, 3030.1199999999999]</t>
+    <t>[27781.8, 2183.69, 2365.03, 2869.27, 7595.86]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -369,13 +375,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[15.0, 15.0, 14.0, 15.0, 13.0]</t>
+    <t>[15.0, 14.0, 15.0, 9.0, 14.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60371193411003.0, 60371398021022.0, 60590881072002.0, 60376510012001.0, 60375418021007.0]</t>
+    <t>[60372753114005.0, 60375512023011.0, 60376509011004.0, 60374813001001.0, 60378003251018.0]</t>
   </si>
   <si>
     <t>key</t>
@@ -465,7 +471,17 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -483,6 +499,56 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3F007D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDADAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA63603"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDD0A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF08306B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9ECAE1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -804,31 +870,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="8" width="25.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="100" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="9" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -846,256 +912,286 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2985217</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10711725</v>
+      </c>
+      <c r="G2" s="4">
+        <v>12545094</v>
+      </c>
+      <c r="H2" s="4">
+        <v>169601949</v>
+      </c>
+      <c r="I2" s="4">
+        <v>7909965.0643772101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3.1485854546421712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2985217</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10711725</v>
-      </c>
-      <c r="F2" s="4">
-        <v>12545094</v>
-      </c>
-      <c r="G2" s="4">
-        <v>169601949</v>
-      </c>
-      <c r="H2" s="4">
-        <v>7909965.0643772101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.4360895015185462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4">
+        <v>751</v>
+      </c>
+      <c r="F5" s="4">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4">
+        <v>534</v>
+      </c>
+      <c r="H5" s="4">
+        <v>8516</v>
+      </c>
+      <c r="I5" s="4">
+        <v>538.62797068286068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.0777535960145861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.2758585815911769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.50168034771449721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4">
-        <v>3.1485854546421712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="H9" s="4">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.8053511139001781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4">
-        <v>27</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2.4360895015185462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
-        <v>751</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="H10" s="4">
         <v>20</v>
       </c>
-      <c r="F5" s="4">
-        <v>534</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8516</v>
-      </c>
-      <c r="H5" s="4">
-        <v>538.62797068286068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="I10" s="4">
+        <v>1.000736064417979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.0777535960145861</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.2758585815911769</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.50168034771449721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1.8053511139001781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1.000736064417979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="4">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>66</v>
@@ -1104,455 +1200,509 @@
         <v>66</v>
       </c>
       <c r="H11" s="4">
+        <v>66</v>
+      </c>
+      <c r="I11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4">
         <v>4604</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>1283</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>31303</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>632.86698191868152</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4">
         <v>12587</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
       <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
         <v>1572</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>952576</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>1819.7801587203969</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4">
         <v>10670</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
       <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
         <v>1539</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>290345</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>971.06083116205639</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4">
         <v>250</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>120</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1296</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>2688</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>357.04976357649463</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4">
         <v>8816</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>112</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>2172</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>820242</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>5447.4140518045206</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4">
         <v>4802</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>1284</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>31303</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>664.4870695844113</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4">
         <v>4251</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>117</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>1992</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>952576</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>7695.1280644761318</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="4">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4">
         <v>3</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6037</v>
       </c>
       <c r="F19" s="4">
         <v>6037</v>
       </c>
       <c r="G19" s="4">
+        <v>6037</v>
+      </c>
+      <c r="H19" s="4">
         <v>6111</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>20.232781290697279</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
         <v>9</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>9</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.46127211686540781</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="4">
         <v>20</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
       <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>20</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.99120522615902951</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="4">
         <v>24</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>25</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>0.61003503793046332</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4">
         <v>2240</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>441</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>7749</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>245.4432800330768</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4"/>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="4">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4">
         <v>14</v>
       </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
       <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>24</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>3.2937317770300392</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="4">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4">
         <v>852325</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>33324388</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>34008249</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>34819650</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>243381.13739003401</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4">
         <v>1042550</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>-119475780</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>-118172540.5</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>-117554316</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>345317.0432116458</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4">
         <v>69953</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>100</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>7000</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>328263808</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>337592.30410095828</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -1564,47 +1714,53 @@
         <v>1</v>
       </c>
       <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="4">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="4">
         <v>907</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>19</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>495</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>17410</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>191.31986240504369</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -1616,21 +1772,24 @@
         <v>1</v>
       </c>
       <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -1642,21 +1801,24 @@
         <v>1</v>
       </c>
       <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -1668,242 +1830,272 @@
         <v>1</v>
       </c>
       <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="4">
+        <v>55</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="4">
         <v>240</v>
       </c>
-      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="4">
+        <v>55</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="4">
         <v>15</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>31</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>261</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>275</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>15.90816392614563</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="4">
+        <v>55</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="4">
         <v>5638</v>
       </c>
-      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="4">
+        <v>121</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="4">
         <v>99393</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>60371011.101000004</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>60375712.005001999</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>61110091.003011003</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>200811.64168525749</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="4">
+        <v>55</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="4">
         <v>186</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>3491</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>25218</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>396556</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>50727.456709654871</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="4">
+        <v>55</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="4">
         <v>3</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>1286</v>
-      </c>
-      <c r="F39" s="4">
-        <v>3101</v>
       </c>
       <c r="G39" s="4">
         <v>3101</v>
       </c>
       <c r="H39" s="4">
+        <v>3101</v>
+      </c>
+      <c r="I39" s="4">
         <v>788.07100756331943</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="4">
+        <v>55</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="4">
         <v>528</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>6952</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>118920</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>764167</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>165713.1826663762</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="4">
+        <v>55</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="4">
         <v>405</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>95982</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>96377</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>399675</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>3673.1744194185399</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="4">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="4">
         <v>36</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
       </c>
       <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
         <v>96</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>2.840402329033715</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E43" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4">
         <v>7</v>
@@ -1912,429 +2104,497 @@
         <v>7</v>
       </c>
       <c r="H43" s="4">
+        <v>7</v>
+      </c>
+      <c r="I43" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="4">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="4">
         <v>7</v>
       </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
       <c r="F44" s="4">
         <v>1</v>
       </c>
       <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
         <v>7</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>0.1177091119644245</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="4">
+        <v>55</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="4">
         <v>5</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>4</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>6</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>13</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>0.38402181348797709</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="4">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="4">
         <v>146</v>
       </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
       <c r="F46" s="4">
         <v>1</v>
       </c>
       <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
         <v>997</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>2.447895336451035</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="4">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="4">
         <v>1636</v>
       </c>
-      <c r="E47" s="4">
-        <v>10</v>
-      </c>
       <c r="F47" s="4">
+        <v>10</v>
+      </c>
+      <c r="G47" s="4">
         <v>270</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>7983</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>233.08486361003921</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="4">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="4">
         <v>594</v>
       </c>
-      <c r="E48" s="4">
-        <v>10</v>
-      </c>
       <c r="F48" s="4">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4">
         <v>168</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>6141</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>369.66166143657188</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="4">
+        <v>55</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="4">
         <v>168</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>1801</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>1963</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>2015</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>23.4413153419186</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="4">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="4">
         <v>12</v>
       </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
       <c r="F50" s="4">
         <v>1</v>
       </c>
       <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
         <v>41</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>0.53907535559676789</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4"/>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="4">
+        <v>10</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="4">
         <v>426150</v>
       </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
       <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
         <v>122590</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>251486000</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I52" s="4">
         <v>402068.27340815793</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="4">
+        <v>10</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="4">
         <v>638920</v>
       </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
       <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
         <v>306086</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <v>282786000</v>
       </c>
-      <c r="H53" s="4">
+      <c r="I53" s="4">
         <v>726346.52838295815</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="4">
+        <v>55</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="4">
         <v>14</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>2000</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>2015</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>2016</v>
       </c>
-      <c r="H54" s="4">
+      <c r="I54" s="4">
         <v>3.6831604784897332E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="4">
+        <v>10</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="4">
         <v>531408</v>
       </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
       <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
         <v>167042</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>90246219</v>
       </c>
-      <c r="H55" s="4">
+      <c r="I55" s="4">
         <v>445013.0933512068</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="4">
+        <v>10</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="4">
         <v>1045757</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <v>1.34</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <v>3991.78</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="4">
         <v>3458861.12</v>
       </c>
-      <c r="H56" s="4">
+      <c r="I56" s="4">
         <v>9183.1055736254602</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="4">
+        <v>10</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="4">
         <v>32</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <v>0</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>14</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <v>99</v>
       </c>
-      <c r="H58" s="4">
+      <c r="I58" s="4">
         <v>2.5809828670759858</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="4">
+        <v>121</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="4">
         <v>96771</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>-1</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>60375715022011</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>483030105084015</v>
       </c>
-      <c r="H59" s="4">
+      <c r="I59" s="4">
         <v>324903398913.8006</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B59">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>B2="error"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>B2="key"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D59">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>D2=0</formula>
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>B2="numeric"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>D2=1</formula>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>B2="str"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>B2="date"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B59">
+  <conditionalFormatting sqref="C2:C59">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>C2=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E59">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>E2=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+      <formula>E2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59">
       <formula1>"key,numeric,str,date"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59">
+      <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/output/data_schema_properties_2016_mdf.xlsx
+++ b/test/output/data_schema_properties_2016_mdf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>column</t>
   </si>
@@ -36,6 +36,9 @@
     <t>sample_num_uni</t>
   </si>
   <si>
+    <t>sample_uni_percentage</t>
+  </si>
+  <si>
     <t>sample_min</t>
   </si>
   <si>
@@ -54,55 +57,55 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[11664234, 14354535, 12037464, 12251695, 14680323]</t>
+    <t>[11238357, 12727866, 12914860, 12397429, 12616423]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 13.0, 1.0]</t>
+    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>architecturalstyletypeid</t>
   </si>
   <si>
-    <t>[7.0, 2.0, 8.0, 7.0, 7.0]</t>
+    <t>[7.0, 7.0, 7.0, 7.0, 8.0]</t>
   </si>
   <si>
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[271.0, 203.0, 1056.0, 392.0, 260.0]</t>
+    <t>[676.0, 130.0, 264.0, 1056.0, 120.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[2.0, 3.0, 1.0, 1.5, 1.0]</t>
+    <t>[2.0, 1.0, 2.0, 2.0, 4.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[3.0, 2.0, 0.0, 3.0, 0.0]</t>
+    <t>[0.0, 3.0, 3.0, 4.0, 2.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[4.0, 3.0, 3.0, 4.0, 4.0]</t>
+    <t>[4.0, 4.0, 4.0, 3.0, 4.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[7.0, 4.0, 7.0, 4.0, 7.0]</t>
+    <t>[4.0, 4.0, 7.0, 4.0, 7.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[5.0, 2.0, 2.5, 2.0, 2.0]</t>
+    <t>[2.0, 5.0, 1.0, 2.0, 3.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -114,43 +117,43 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1268.0, 1526.0, 975.0, 952.0, 1768.0]</t>
+    <t>[840.0, 1224.0, 1453.0, 725.0, 3730.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1288.0, 593.0, 1438.0, 2030.0, 1385.0]</t>
+    <t>[1650.0, 2508.0, 1269.0, 2398.0, 1721.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[1473.0, 1612.0, 1782.0, 919.0, 1382.0]</t>
+    <t>[1768.0, 1606.0, 1606.0, 1870.0, 1428.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[720.0, 1344.0, 1440.0, 1440.0, 768.0]</t>
+    <t>[1440.0, 832.0, 840.0, 684.0, 1440.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[1828.0, 2434.0, 1773.0, 4030.0, 1458.0]</t>
+    <t>[2572.0, 1484.0, 2157.0, 1628.0, 2838.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[817.0, 1153.0, 1424.0, 1208.0, 1674.0]</t>
+    <t>[873.0, 1033.0, 2348.0, 1120.0, 1596.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[925.0, 4968.0, 485.0, 1933.0, 3584.0]</t>
+    <t>[4520.0, 6641.0, 570.0, 845.0, 4802.0]</t>
   </si>
   <si>
     <t>fips</t>
@@ -162,25 +165,25 @@
     <t>fireplacecnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
+    <t>[2.0, 1.0, 2.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 2.0, 1.0, 2.0]</t>
+    <t>[2.0, 2.0, 2.0, 3.0, 1.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 2.0, 3.0, 2.0]</t>
+    <t>[2.0, 4.0, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[0.0, 419.0, 0.0, 559.0, 575.0]</t>
+    <t>[0.0, 351.0, 704.0, 360.0, 592.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -195,25 +198,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 2.0, 7.0, 6.0]</t>
+    <t>[2.0, 7.0, 7.0, 2.0, 7.0]</t>
   </si>
   <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33812138.0, 34449431.0, 33699880.0, 33950100.0, 34199527.0]</t>
+    <t>[34440056.0, 33650044.0, 34144112.0, 34185000.0, 33829205.0]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118016862.0, -117702545.0, -118169645.0, -118162000.0, -118159881.0]</t>
+    <t>[-117892000.0, -118053792.0, -117908466.0, -118292927.0, -119187780.0]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[6500.0, 61032.0, 5692.0, 2360.0, 3324.0]</t>
+    <t>[6400.0, 6066.0, 5916.0, 6805.0, 4563.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -222,7 +225,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[405.0, 550.0, 577.0, 390.0, 400.0]</t>
+    <t>[364.0, 287.0, 600.0, 360.0, 198.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -237,55 +240,55 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['0101', '122', '0100', '0100', '0101']</t>
+    <t>['0100', '0100', '0101', '0100', '0100']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[263.0, 261.0, 246.0, 261.0, 266.0]</t>
+    <t>[261.0, 246.0, 261.0, 261.0, 261.0]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['MPR1YY', 'LARS', 'LARD2', 'LCR16000*', 'LCR105']</t>
+    <t>['LCA16000*', 'CARS*', 'LBR1N', 'PSR1', 'LARD3']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[60375545.131009, 60371852.042001, 60590998.033009, 60372169.00100601, 60590524.252]</t>
+    <t>[60590992.452003, 60374084.01201, 60590525.23300699, 60372321.101002, 60590637.024002]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[16764.0, 47762.0, 30399.0, 13693.0, 12447.0]</t>
+    <t>[25458.0, 34278.0, 12447.0, 4406.0, 17597.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[1286.0, 2061.0, 3101.0, 3101.0, 3101.0]</t>
+    <t>[3101.0, 3101.0, 3101.0, 1286.0, 3101.0]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[268496.0, 7877.0, 275795.0, 416337.0, 116206.0]</t>
+    <t>[274828.0, 268097.0, 32059.0, 275428.0, 40548.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[96368.0, 96015.0, 96506.0, 97065.0, 97065.0]</t>
+    <t>[96967.0, 96240.0, 95984.0, 96193.0, 96497.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[0.0, 8.0, 0.0, 0.0, 0.0]</t>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
@@ -312,25 +315,25 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[350.0, 650.0, 240.0, 302.0, 328.0]</t>
+    <t>[256.0, 120.0, 288.0, 220.0, 44.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[170.0, 120.0, 204.0, 49.0, 88.0]</t>
+    <t>[100.0, 897.0, 192.0, 71.0, 379.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1951.0, 1989.0, 2014.0, 2001.0, 1989.0]</t>
+    <t>[1951.0, 2004.0, 1969.0, 1959.0, 1964.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 2.0]</t>
+    <t>[1.0, 2.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>fireplaceflag</t>
@@ -339,13 +342,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[641506.0, 71429.0, 47251.0, 93453.0, 35486.0]</t>
+    <t>[214000.0, 100239.0, 94972.0, 231218.0, 199121.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[416000.0, 217991.0, 211053.0, 188664.0, 753558.0]</t>
+    <t>[234781.0, 453890.0, 251775.0, 1313566.0, 437707.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -357,13 +360,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[40676.0, 70427.0, 126967.0, 76461.0, 168765.0]</t>
+    <t>[134021.0, 582296.0, 276445.0, 29352.0, 119169.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[27781.8, 2183.69, 2365.03, 2869.27, 7595.86]</t>
+    <t>[2585.6, 6498.7, 2416.7, 4801.86, 5018.02]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -375,13 +378,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[15.0, 14.0, 15.0, 9.0, 14.0]</t>
+    <t>[15.0, 10.0, 15.0, 15.0, 13.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60372753114005.0, 60375512023011.0, 60376509011004.0, 60374813001001.0, 60378003251018.0]</t>
+    <t>[60374038022006.0, 60375335012001.0, 60590012021008.0, 60379203281001.0, 60372323002006.0]</t>
   </si>
   <si>
     <t>key</t>
@@ -471,7 +474,107 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3F007D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDADAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA63603"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDD0A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF08306B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9ECAE1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3F007D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDADAEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA63603"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDD0A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF08306B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9ECAE1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -870,24 +973,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="100" customWidth="1"/>
+    <col min="4" max="4" width="80" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="10" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,286 +1019,316 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4">
         <v>2985217</v>
       </c>
       <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
         <v>10711725</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>12545094</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>169601949</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7909965.0643772101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>7</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
         <v>13</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>3.1485854546421712</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4">
         <v>8</v>
       </c>
       <c r="F4" s="4">
+        <v>1.32E-3</v>
+      </c>
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>7</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>27</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>2.4360895015185462</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>751</v>
       </c>
       <c r="F5" s="4">
+        <v>0.46129999999999999</v>
+      </c>
+      <c r="G5" s="4">
         <v>20</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>534</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>8516</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>538.62797068286068</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <v>37</v>
       </c>
       <c r="F6" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>20</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>1.0777535960145861</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>21</v>
       </c>
       <c r="F7" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>20</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>1.2758585815911769</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <v>5</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
         <v>4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>0.50168034771449721</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
         <v>12</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
         <v>7</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>12</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>1.8053511139001781</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4">
         <v>34</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>20</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>1.000736064417979</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>66</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="G11" s="4">
         <v>66</v>
@@ -1203,512 +1337,566 @@
         <v>66</v>
       </c>
       <c r="I11" s="4">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4">
         <v>4604</v>
       </c>
       <c r="F12" s="4">
+        <v>2.2710000000000001E-2</v>
+      </c>
+      <c r="G12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>1283</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>31303</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>632.86698191868152</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4">
         <v>12587</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>4.3E-3</v>
       </c>
       <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
         <v>1572</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>952576</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>1819.7801587203969</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4">
         <v>10670</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
         <v>1539</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>290345</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>971.06083116205639</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4">
         <v>250</v>
       </c>
       <c r="F15" s="4">
+        <v>3.2590000000000001E-2</v>
+      </c>
+      <c r="G15" s="4">
         <v>120</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>1296</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>2688</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>357.04976357649463</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4">
         <v>8816</v>
       </c>
       <c r="F16" s="4">
+        <v>4.6210000000000001E-2</v>
+      </c>
+      <c r="G16" s="4">
         <v>112</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>2172</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>820242</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>5447.4140518045206</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4">
         <v>4802</v>
       </c>
       <c r="F17" s="4">
+        <v>2.3689999999999999E-2</v>
+      </c>
+      <c r="G17" s="4">
         <v>3</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>1284</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>31303</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>664.4870695844113</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4">
         <v>4251</v>
       </c>
       <c r="F18" s="4">
+        <v>0.19322</v>
+      </c>
+      <c r="G18" s="4">
         <v>117</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>1992</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>952576</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>7695.1280644761318</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4">
         <v>3</v>
       </c>
       <c r="F19" s="4">
-        <v>6037</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
         <v>6037</v>
       </c>
       <c r="H19" s="4">
+        <v>6037</v>
+      </c>
+      <c r="I19" s="4">
         <v>6111</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>20.232781290697279</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4">
         <v>9</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
         <v>9</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>0.46127211686540781</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>20</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>0.99120522615902951</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4">
         <v>24</v>
       </c>
       <c r="F22" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G22" s="4">
         <v>0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>2</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>25</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>0.61003503793046332</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="4">
         <v>2240</v>
       </c>
       <c r="F23" s="4">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="G23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>441</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>7749</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>245.4432800330768</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4">
         <v>14</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
         <v>2</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>24</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>3.2937317770300392</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="4">
         <v>852325</v>
       </c>
       <c r="F26" s="4">
+        <v>0.28660999999999998</v>
+      </c>
+      <c r="G26" s="4">
         <v>33324388</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>34008249</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>34819650</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>243381.13739003401</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="4">
         <v>1042550</v>
       </c>
       <c r="F27" s="4">
+        <v>0.35058</v>
+      </c>
+      <c r="G27" s="4">
         <v>-119475780</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>-118172540.5</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>-117554316</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>345317.0432116458</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="4">
         <v>69953</v>
       </c>
       <c r="F28" s="4">
+        <v>2.5819999999999999E-2</v>
+      </c>
+      <c r="G28" s="4">
         <v>100</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>7000</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>328263808</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>337592.30410095828</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -1717,56 +1905,62 @@
         <v>1</v>
       </c>
       <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="4">
         <v>907</v>
       </c>
       <c r="F30" s="4">
+        <v>3.2439999999999997E-2</v>
+      </c>
+      <c r="G30" s="4">
         <v>19</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>495</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>17410</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>191.31986240504369</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>1</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -1775,27 +1969,30 @@
         <v>1</v>
       </c>
       <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>1</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -1804,27 +2001,30 @@
         <v>1</v>
       </c>
       <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -1833,272 +2033,302 @@
         <v>1</v>
       </c>
       <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="4">
         <v>240</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4">
+        <v>8.0000000000000007E-5</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="4">
         <v>15</v>
       </c>
       <c r="F35" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G35" s="4">
         <v>31</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>261</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>275</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>15.90816392614563</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="4">
         <v>5638</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4">
+        <v>2.8500000000000001E-3</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" s="4">
         <v>99393</v>
       </c>
       <c r="F37" s="4">
+        <v>3.3419999999999998E-2</v>
+      </c>
+      <c r="G37" s="4">
         <v>60371011.101000004</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>60375712.005001999</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>61110091.003011003</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>200811.64168525749</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38" s="4">
         <v>186</v>
       </c>
       <c r="F38" s="4">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="G38" s="4">
         <v>3491</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>25218</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>396556</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>50727.456709654871</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39" s="4">
         <v>3</v>
       </c>
       <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
         <v>1286</v>
-      </c>
-      <c r="G39" s="4">
-        <v>3101</v>
       </c>
       <c r="H39" s="4">
         <v>3101</v>
       </c>
       <c r="I39" s="4">
+        <v>3101</v>
+      </c>
+      <c r="J39" s="4">
         <v>788.07100756331943</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="4">
         <v>528</v>
       </c>
       <c r="F40" s="4">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="G40" s="4">
         <v>6952</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>118920</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>764167</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>165713.1826663762</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" s="4">
         <v>405</v>
       </c>
       <c r="F41" s="4">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="G41" s="4">
         <v>95982</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>96377</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>399675</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>3673.1744194185399</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="4">
         <v>36</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
       <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
         <v>96</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>2.840402329033715</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
       </c>
       <c r="F43" s="4">
-        <v>7</v>
+        <v>6.2E-4</v>
       </c>
       <c r="G43" s="4">
         <v>7</v>
@@ -2107,493 +2337,544 @@
         <v>7</v>
       </c>
       <c r="I43" s="4">
+        <v>7</v>
+      </c>
+      <c r="J43" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E44" s="4">
         <v>7</v>
       </c>
       <c r="F44" s="4">
-        <v>1</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
       </c>
       <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
         <v>7</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>0.1177091119644245</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="4">
         <v>5</v>
       </c>
       <c r="F45" s="4">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="G45" s="4">
         <v>4</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>6</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>13</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>0.38402181348797709</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="4">
         <v>146</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="G46" s="4">
         <v>1</v>
       </c>
       <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
         <v>997</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>2.447895336451035</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E47" s="4">
         <v>1636</v>
       </c>
       <c r="F47" s="4">
+        <v>2.036E-2</v>
+      </c>
+      <c r="G47" s="4">
         <v>10</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>270</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>7983</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>233.08486361003921</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E48" s="4">
         <v>594</v>
       </c>
       <c r="F48" s="4">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="G48" s="4">
         <v>10</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>168</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>6141</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>369.66166143657188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" s="4">
         <v>168</v>
       </c>
       <c r="F49" s="4">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="G49" s="4">
         <v>1801</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>1963</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>2015</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>23.4413153419186</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="4">
         <v>12</v>
       </c>
       <c r="F50" s="4">
-        <v>1</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G50" s="4">
         <v>1</v>
       </c>
       <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
         <v>41</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>0.53907535559676789</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="4">
+        <v>1.9000000000000001E-4</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" s="4">
         <v>426150</v>
       </c>
       <c r="F52" s="4">
-        <v>1</v>
+        <v>0.14543</v>
       </c>
       <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
         <v>122590</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I52" s="4">
         <v>251486000</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J52" s="4">
         <v>402068.27340815793</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" s="4">
         <v>638920</v>
       </c>
       <c r="F53" s="4">
-        <v>1</v>
+        <v>0.21712000000000001</v>
       </c>
       <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
         <v>306086</v>
       </c>
-      <c r="H53" s="4">
+      <c r="I53" s="4">
         <v>282786000</v>
       </c>
-      <c r="I53" s="4">
+      <c r="J53" s="4">
         <v>726346.52838295815</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E54" s="4">
         <v>14</v>
       </c>
       <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
         <v>2000</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>2015</v>
       </c>
-      <c r="H54" s="4">
+      <c r="I54" s="4">
         <v>2016</v>
       </c>
-      <c r="I54" s="4">
+      <c r="J54" s="4">
         <v>3.6831604784897332E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55" s="4">
         <v>531408</v>
       </c>
       <c r="F55" s="4">
-        <v>1</v>
+        <v>0.18215000000000001</v>
       </c>
       <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
         <v>167042</v>
       </c>
-      <c r="H55" s="4">
+      <c r="I55" s="4">
         <v>90246219</v>
       </c>
-      <c r="I55" s="4">
+      <c r="J55" s="4">
         <v>445013.0933512068</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E56" s="4">
         <v>1045757</v>
       </c>
       <c r="F56" s="4">
+        <v>0.35402</v>
+      </c>
+      <c r="G56" s="4">
         <v>1.34</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="4">
         <v>3991.78</v>
       </c>
-      <c r="H56" s="4">
+      <c r="I56" s="4">
         <v>3458861.12</v>
       </c>
-      <c r="I56" s="4">
+      <c r="J56" s="4">
         <v>9183.1055736254602</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="4">
+        <v>2.0000000000000002E-5</v>
+      </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E58" s="4">
         <v>32</v>
       </c>
       <c r="F58" s="4">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="G58" s="4">
         <v>0</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <v>14</v>
       </c>
-      <c r="H58" s="4">
+      <c r="I58" s="4">
         <v>99</v>
       </c>
-      <c r="I58" s="4">
+      <c r="J58" s="4">
         <v>2.5809828670759858</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="E59" s="4">
         <v>96771</v>
       </c>
       <c r="F59" s="4">
+        <v>3.3250000000000002E-2</v>
+      </c>
+      <c r="G59" s="4">
         <v>-1</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>60375715022011</v>
       </c>
-      <c r="H59" s="4">
+      <c r="I59" s="4">
         <v>483030105084015</v>
       </c>
-      <c r="I59" s="4">
+      <c r="J59" s="4">
         <v>324903398913.8006</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E59">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+      <formula>E2=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>E2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B59">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>B2="error"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>B2="key"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>B2="numeric"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>B2="str"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>B2="date"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C59">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>C2=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E59">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
-      <formula>E2=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
-      <formula>E2=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B59">
       <formula1>"key,numeric,str,date"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C59">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
